--- a/Ease of Doing Business.xlsx
+++ b/Ease of Doing Business.xlsx
@@ -9,18 +9,12 @@
   <sheets>
     <sheet name="Ease of Doing Business" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
-  <si>
-    <t>Country Name</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Paying taxes: Total tax and contribution rate (% of profit) [PAY.TAX.TOT.TAX.RT.ZS]</t>
   </si>
@@ -112,12 +106,6 @@
     <t>Tokyo</t>
   </si>
   <si>
-    <t>Data from database: Doing Business</t>
-  </si>
-  <si>
-    <t>Last Updated: 08/18/2021</t>
-  </si>
-  <si>
     <t>Dealing with construction permits (DB16-20 methodology) - Score [IC.CNST.PRMT.DFRN.DB1619]</t>
   </si>
   <si>
@@ -134,6 +122,12 @@
   </si>
   <si>
     <t>Enforcing contracts: Cost (% of claim) [ENF.CONT.COEN.COST.ZS]</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -955,97 +949,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>2015</v>
@@ -1125,7 +1119,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -1205,7 +1199,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -1285,7 +1279,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>2018</v>
@@ -1365,7 +1359,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2019</v>
@@ -1445,7 +1439,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>2015</v>
@@ -1525,7 +1519,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>2016</v>
@@ -1605,7 +1599,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>2017</v>
@@ -1685,7 +1679,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>2018</v>
@@ -1765,7 +1759,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>2019</v>
@@ -1845,7 +1839,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>2015</v>
@@ -1925,7 +1919,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>2016</v>
@@ -2005,7 +1999,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -2085,7 +2079,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>2018</v>
@@ -2165,7 +2159,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>2019</v>
@@ -2245,7 +2239,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -2325,7 +2319,7 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>2016</v>
@@ -2405,7 +2399,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>2017</v>
@@ -2485,7 +2479,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>2018</v>
@@ -2565,7 +2559,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>2019</v>
@@ -2645,7 +2639,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>2015</v>
@@ -2725,7 +2719,7 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>2016</v>
@@ -2805,7 +2799,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2017</v>
@@ -2885,7 +2879,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -2965,7 +2959,7 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>2019</v>
@@ -3045,7 +3039,7 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>2015</v>
@@ -3125,7 +3119,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>2016</v>
@@ -3205,7 +3199,7 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>2017</v>
@@ -3285,7 +3279,7 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>2018</v>
@@ -3365,7 +3359,7 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>2019</v>
@@ -3445,7 +3439,7 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32">
         <v>2015</v>
@@ -3525,7 +3519,7 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>2016</v>
@@ -3605,7 +3599,7 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>2017</v>
@@ -3685,7 +3679,7 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35">
         <v>2018</v>
@@ -3765,7 +3759,7 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>2019</v>
@@ -3845,7 +3839,7 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>2015</v>
@@ -3925,7 +3919,7 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>2016</v>
@@ -4005,7 +3999,7 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>2017</v>
@@ -4085,7 +4079,7 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B40">
         <v>2018</v>
@@ -4165,7 +4159,7 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41">
         <v>2019</v>
@@ -4245,7 +4239,7 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B42">
         <v>2015</v>
@@ -4325,7 +4319,7 @@
     </row>
     <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43">
         <v>2016</v>
@@ -4405,7 +4399,7 @@
     </row>
     <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B44">
         <v>2017</v>
@@ -4485,7 +4479,7 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B45">
         <v>2018</v>
@@ -4565,7 +4559,7 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B46">
         <v>2019</v>
@@ -4645,7 +4639,7 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>2015</v>
@@ -4725,7 +4719,7 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <v>2016</v>
@@ -4805,7 +4799,7 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>2017</v>
@@ -4885,7 +4879,7 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>2018</v>
@@ -4965,7 +4959,7 @@
     </row>
     <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>2019</v>
@@ -5045,7 +5039,7 @@
     </row>
     <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>2015</v>
@@ -5125,7 +5119,7 @@
     </row>
     <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>2016</v>
@@ -5205,7 +5199,7 @@
     </row>
     <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>2017</v>
@@ -5285,7 +5279,7 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B55">
         <v>2018</v>
@@ -5365,7 +5359,7 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <v>2019</v>
@@ -5445,7 +5439,7 @@
     </row>
     <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>2015</v>
@@ -5525,7 +5519,7 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>2016</v>
@@ -5605,7 +5599,7 @@
     </row>
     <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>2017</v>
@@ -5685,7 +5679,7 @@
     </row>
     <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B60">
         <v>2018</v>
@@ -5765,7 +5759,7 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B61">
         <v>2019</v>
@@ -5841,16 +5835,6 @@
       </c>
       <c r="Z61">
         <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
